--- a/UploadDocument/PLE_Singles_Template.xlsx
+++ b/UploadDocument/PLE_Singles_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Work\Automation_codes\Automation_code_22_07_22\WTT\UploadDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911F1E1F-B0D3-4AA2-BC6D-E07D85D64803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F882F6-2C05-4969-AAE2-394B46AB6510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,10 +513,10 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H50"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
@@ -526,7 +526,7 @@
     <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -604,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -682,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -734,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -786,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -864,7 +864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -890,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -916,7 +916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -968,7 +968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -994,7 +994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
